--- a/ComputersFactory/Excel-Reports/Manufacturers.xlsx
+++ b/ComputersFactory/Excel-Reports/Manufacturers.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A2:B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ComputersFactory/Excel-Reports/Manufacturers.xlsx
+++ b/ComputersFactory/Excel-Reports/Manufacturers.xlsx
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ComputersFactory/Excel-Reports/Manufacturers.xlsx
+++ b/ComputersFactory/Excel-Reports/Manufacturers.xlsx
@@ -1,33 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" r:id="rId1" name="Sheet1"/>
+    <sheet sheetId="2" r:id="rId2" name="Sheet2"/>
+    <sheet sheetId="3" r:id="rId3" name="Sheet3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +98,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,21 +392,541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="A2:B26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row spans="1:2" outlineLevel="0" r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row spans="1:2" outlineLevel="0" r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row spans="1:2" outlineLevel="0" r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row spans="1:2" outlineLevel="0" r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row spans="1:2" outlineLevel="0" r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
       </c>
     </row>
   </sheetData>
